--- a/outputs/result_excels/my_result.xlsx
+++ b/outputs/result_excels/my_result.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmProject\WebServiceTest\outputs\result_excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41889E77-D833-45A1-B61B-1AFF948955CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="send_msg" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="verifyUserAuth" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
   <si>
     <t>case_id</t>
   </si>
@@ -142,12 +137,118 @@
   <si>
     <t>短信模板配置错误</t>
   </si>
+  <si>
+    <t>check_sql</t>
+  </si>
+  <si>
+    <t>{"client_ip": "129.45.6.7", "tmpl_id": "1", "mobile": "${register_phone}"}</t>
+  </si>
+  <si>
+    <t>select Fverify_code from sms_db_${db_id}.t_mvcode_info_${table_id} WHERE Fmobile_no = ${register_phone}</t>
+  </si>
+  <si>
+    <t>注册-成功</t>
+  </si>
+  <si>
+    <t>userRegister</t>
+  </si>
+  <si>
+    <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+  </si>
+  <si>
+    <t>{"verify_code": "${verify_code}", "user_id": "yoyo", "channel_id": "1", "pwd": "123456", "mobile": "${register_phone}",
+     "ip": "129.45.6.7"}</t>
+  </si>
+  <si>
+    <t>20042003</t>
+  </si>
+  <si>
+    <t>(commResult){
+   retCode = "20042003"
+   retInfo = "该用户已存在"
+ }</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>注册-手机号为空</t>
+  </si>
+  <si>
+    <t>{"verify_code": "${verify_code}", "user_id": "yoyo", "channel_id": "1", "pwd": "123456", "mobile": "",
+     "ip": "129.45.6.8"}</t>
+  </si>
+  <si>
+    <t>19001</t>
+  </si>
+  <si>
+    <t>(commResult){
+   retCode = "19001"
+   retInfo = "手机号错误"
+ }</t>
+  </si>
+  <si>
+    <t>注册-用户名为空</t>
+  </si>
+  <si>
+    <t>{"verify_code": "${verify_code}", "user_id": "", "channel_id": "1", "pwd": "123456", "mobile": "${register_phone}",
+     "ip": "129.45.6.9"}</t>
+  </si>
+  <si>
+    <t>(commResult){
+   retCode = "19001"
+   retInfo = "用户名错误"
+ }</t>
+  </si>
+  <si>
+    <t>注册-手机号已经存在</t>
+  </si>
+  <si>
+    <t>{"verify_code": "${verify_code}", "user_id": "yoyo", "channel_id": "1", "pwd": "123456", "mobile": "${exist_phone}",
+     "ip": "129.45.6.10"}</t>
+  </si>
+  <si>
+    <t>注册-验证码错误</t>
+  </si>
+  <si>
+    <t>{"verify_code": "0000", "user_id": "yoyo", "channel_id": "1", "pwd": "123456", "mobile": "${register_phone}",
+     "ip": "129.45.6.11"}</t>
+  </si>
+  <si>
+    <t>注册-渠道号错误</t>
+  </si>
+  <si>
+    <t>{"verify_code": "${verify_code}", "user_id": "yoyo", "channel_id": "55", "pwd": "123456", "mobile": "${register_phone}",
+     "ip": "129.45.6.12"}</t>
+  </si>
+  <si>
+    <t>(commResult){
+   retCode = "19001"
+   retInfo = "渠道信息错误"
+ }</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>注册-密码为空</t>
+  </si>
+  <si>
+    <t>{"verify_code": "${verify_code}", "user_id": "yoyo", "channel_id": "1", "pwd": "", "mobile": "${register_phone}",
+     "ip": "129.45.6.13"}</t>
+  </si>
+  <si>
+    <t>(commResult){
+   retCode = "19001"
+   retInfo = "用户UID错误"
+ }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,14 +310,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -504,23 +597,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="48.6328125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="48.625" customWidth="1"/>
+    <col min="5" max="5" width="76.25" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="60.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +645,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -580,7 +675,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -610,7 +705,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -640,7 +735,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -670,7 +765,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -700,7 +795,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -730,7 +825,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -763,21 +858,306 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1322F96-4DB3-45EB-8FE0-890394681BAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="146.75" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="84.375" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>